--- a/db/load/cdisc/sdtm_model/sdtm_1-7.xlsx
+++ b/db/load/cdisc/sdtm_model/sdtm_1-7.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3506219-B20E-AD46-8726-3C863D441A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A8CB4-0FF1-4D44-BC76-59E40D421EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41300" yWindow="5540" windowWidth="23040" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SDTM v1.7 variables" sheetId="1" r:id="rId1"/>
+    <sheet name="SDTM 1.7" sheetId="1" r:id="rId1"/>
     <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -18,12 +18,12 @@
     <definedName name="NoPrefixVar" localSheetId="1">'[1]Variables No Domain Prefix'!$A:$A</definedName>
     <definedName name="NoPrefixVar">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="1278">
   <si>
     <t>Interventions</t>
   </si>
@@ -3997,6 +3997,9 @@
   </si>
   <si>
     <t>Explanatory text for the SDTM variable.</t>
+  </si>
+  <si>
+    <t>Core</t>
   </si>
 </sst>
 </file>
@@ -4187,7 +4190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4373,6 +4376,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -4534,7 +4543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4579,8 +4588,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4622,8 +4634,11 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="44" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4653,6 +4668,7 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Header SHARE Exports" xfId="44" xr:uid="{A7995E33-D171-B94F-AE4D-CCF1558F1932}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -5343,9 +5359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K434"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5363,7 +5381,7 @@
     <col min="12" max="16384" width="14.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1241</v>
       </c>
@@ -5397,8 +5415,11 @@
       <c r="K1" s="3" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5427,7 +5448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5456,7 +5477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5485,7 +5506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5514,7 +5535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5543,7 +5564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5572,7 +5593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5601,7 +5622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5630,7 +5651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5659,7 +5680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5688,7 +5709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5717,7 +5738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5746,7 +5767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5775,7 +5796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5804,7 +5825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1240</v>
       </c>
